--- a/Test_Plan.xlsx
+++ b/Test_Plan.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\exceldb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\exceldb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Test Id</t>
   </si>
@@ -149,9 +149,6 @@
     <t>The field should accept numbers and characters. However there is a limit to the amount.</t>
   </si>
   <si>
-    <t>The field correctly stored characters inputted into the fields region in a database table.</t>
-  </si>
-  <si>
     <t>Functional Test, Testing the level field to see whether numerical values may be stored.</t>
   </si>
   <si>
@@ -198,12 +195,18 @@
   </si>
   <si>
     <t>The Name field updated correctly, when being edited.</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>The field correctly stored integers inputted into the fields region in a database table.Whilst a user prompt appeared if characters were attempted to be inputted.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -256,11 +265,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -269,6 +289,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,6 +308,847 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157373</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>157174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>952714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19416923" y="1490674"/>
+          <a:ext cx="2890627" cy="795540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5553076</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>962265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22345650" y="1504058"/>
+          <a:ext cx="2466976" cy="791707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5648325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8077200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>969980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24907875" y="1524000"/>
+          <a:ext cx="2428875" cy="779480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8191501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>360961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11010901</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>877386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27451051" y="1694461"/>
+          <a:ext cx="2819400" cy="516425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1181429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19402425" y="276225"/>
+          <a:ext cx="1323975" cy="1095704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>77712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3457575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1172449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20974050" y="268212"/>
+          <a:ext cx="1743075" cy="1094737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1590674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1305474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392899" y="1368025"/>
+          <a:ext cx="1457325" cy="1223324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>72004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3791687</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1343467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20935950" y="1357879"/>
+          <a:ext cx="2115287" cy="1271463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4596764</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1531299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22431375" y="6019800"/>
+          <a:ext cx="1424939" cy="1493199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2314576</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1552872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19526250" y="6025611"/>
+          <a:ext cx="2047876" cy="1508961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1628774</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1470453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19364325" y="5090476"/>
+          <a:ext cx="1523999" cy="1409177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>70974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4343400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1362430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21126450" y="5100174"/>
+          <a:ext cx="2476500" cy="1291456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4829176</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5781676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1448273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24088726" y="5099059"/>
+          <a:ext cx="952500" cy="1378414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6162675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8096250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1457629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25422225" y="5115966"/>
+          <a:ext cx="1933575" cy="1370863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1301624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19640550" y="7029450"/>
+          <a:ext cx="1695450" cy="1225424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3400425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4267200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1372099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22659975" y="6978625"/>
+          <a:ext cx="866775" cy="1346724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4496166</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6487054</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1247775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23755716" y="7025501"/>
+          <a:ext cx="1990888" cy="1175524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1413399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19450050" y="2886075"/>
+          <a:ext cx="866775" cy="1346724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3838738</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1356499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21107400" y="3000375"/>
+          <a:ext cx="1990888" cy="1175524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,9 +1428,10 @@
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="188.28515625" customWidth="1"/>
+    <col min="7" max="7" width="167.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -584,8 +1450,11 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -604,8 +1473,9 @@
       <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -624,8 +1494,9 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -644,8 +1515,9 @@
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -664,8 +1536,9 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -684,8 +1557,9 @@
       <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -704,8 +1578,9 @@
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -724,8 +1599,9 @@
       <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -744,8 +1620,9 @@
       <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -764,8 +1641,9 @@
       <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -782,15 +1660,16 @@
         <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
@@ -799,18 +1678,19 @@
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -819,18 +1699,19 @@
         <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5">
         <v>13</v>
@@ -839,18 +1720,19 @@
         <v>23</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -859,31 +1741,33 @@
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -952,5 +1836,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>